--- a/gongcha T5/Xuất-nhập-tồn-Hà-Nội.xlsx
+++ b/gongcha T5/Xuất-nhập-tồn-Hà-Nội.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\gongcha T5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\upload\gongcha T5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,6 +124,31 @@
           </rPr>
           <t xml:space="preserve">
 HT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ht
+</t>
         </r>
       </text>
     </comment>
@@ -1195,11 +1220,20 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1216,6 +1250,7 @@
     <xf numFmtId="4" fontId="6" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1253,16 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,10 +1571,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="E74" sqref="E74"/>
+      <selection pane="topRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1616,7 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="71" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="1"/>
@@ -1619,7 +1644,7 @@
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="70">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
@@ -1767,53 +1792,53 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="85" t="s">
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="85" t="s">
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="90" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="82" t="s">
+      <c r="V9" s="86" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="88"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="43" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1854,7 @@
       <c r="H10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1870,7 @@
       <c r="N10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="90"/>
       <c r="P10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1861,8 +1886,8 @@
       <c r="T10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="91"/>
-      <c r="V10" s="83"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="87"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
@@ -2120,8 +2145,8 @@
         <v>20</v>
       </c>
       <c r="C15" s="61">
-        <f>2/24</f>
-        <v>8.3333333333333329E-2</v>
+        <f>19/24</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D15" s="46">
         <v>0</v>
@@ -2148,31 +2173,31 @@
       </c>
       <c r="P15" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="Q15" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="R15" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S15" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="T15" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="U15" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5416666666666661</v>
       </c>
       <c r="V15" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2307,8 +2332,8 @@
         <v>23</v>
       </c>
       <c r="C18" s="61">
-        <f>2/10</f>
-        <v>0.2</v>
+        <f>8/10</f>
+        <v>0.8</v>
       </c>
       <c r="D18" s="46">
         <v>0</v>
@@ -2334,31 +2359,31 @@
       </c>
       <c r="P18" s="59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="Q18" s="59">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="R18" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="S18" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="T18" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="V18" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2369,7 +2394,8 @@
         <v>24</v>
       </c>
       <c r="C19" s="61">
-        <v>10</v>
+        <f>488/48</f>
+        <v>10.166666666666666</v>
       </c>
       <c r="D19" s="46">
         <v>0</v>
@@ -2395,31 +2421,31 @@
       </c>
       <c r="P19" s="59">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="R19" s="59">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="S19" s="59">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="T19" s="59">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="U19" s="60">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>40.833333333333329</v>
       </c>
       <c r="V19" s="57">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2430,7 +2456,8 @@
         <v>25</v>
       </c>
       <c r="C20" s="69">
-        <v>0.25</v>
+        <f>26/80</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D20" s="46">
         <v>1</v>
@@ -2457,31 +2484,31 @@
       </c>
       <c r="P20" s="59">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="Q20" s="59">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="R20" s="59">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="S20" s="59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="T20" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="U20" s="60">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>5.375</v>
       </c>
       <c r="V20" s="57">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2492,7 +2519,8 @@
         <v>26</v>
       </c>
       <c r="C21" s="69">
-        <v>0.5</v>
+        <f>52/80</f>
+        <v>0.65</v>
       </c>
       <c r="D21" s="46">
         <v>1</v>
@@ -2518,31 +2546,31 @@
       </c>
       <c r="P21" s="59">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="R21" s="59">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S21" s="59">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T21" s="59">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U21" s="60">
         <f t="shared" si="7"/>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="V21" s="57">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2553,8 +2581,8 @@
         <v>27</v>
       </c>
       <c r="C22" s="69">
-        <f>71/80</f>
-        <v>0.88749999999999996</v>
+        <f>101/80</f>
+        <v>1.2625</v>
       </c>
       <c r="D22" s="46">
         <v>0</v>
@@ -2581,31 +2609,31 @@
       </c>
       <c r="P22" s="59">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="Q22" s="59">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="R22" s="59">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="S22" s="59">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="T22" s="59">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="U22" s="60">
         <f t="shared" si="7"/>
-        <v>3.75</v>
+        <v>5.625</v>
       </c>
       <c r="V22" s="57">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2616,8 +2644,8 @@
         <v>28</v>
       </c>
       <c r="C23" s="69">
-        <f>209/80</f>
-        <v>2.6124999999999998</v>
+        <f>309/80</f>
+        <v>3.8624999999999998</v>
       </c>
       <c r="D23" s="46">
         <v>0</v>
@@ -2644,31 +2672,31 @@
       </c>
       <c r="P23" s="59">
         <f t="shared" si="5"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" s="59">
         <f t="shared" si="6"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="R23" s="59">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="S23" s="59">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="T23" s="59">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U23" s="60">
         <f t="shared" si="7"/>
-        <v>11.25</v>
+        <v>17.5</v>
       </c>
       <c r="V23" s="57">
         <f t="shared" si="8"/>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2679,8 +2707,8 @@
         <v>29</v>
       </c>
       <c r="C24" s="69">
-        <f>140/80</f>
-        <v>1.75</v>
+        <f>232/80</f>
+        <v>2.9</v>
       </c>
       <c r="D24" s="46">
         <v>0</v>
@@ -2706,31 +2734,31 @@
       </c>
       <c r="P24" s="59">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q24" s="59">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="R24" s="59">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="S24" s="59">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="T24" s="59">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="U24" s="60">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>13.25</v>
       </c>
       <c r="V24" s="57">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2866,7 +2894,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D27" s="46">
         <v>1</v>
@@ -2892,31 +2920,31 @@
       </c>
       <c r="P27" s="59">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q27" s="59">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R27" s="59">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S27" s="59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T27" s="59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U27" s="60">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="V27" s="57">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3050,7 +3078,8 @@
         <v>35</v>
       </c>
       <c r="C30" s="61">
-        <v>13</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D30" s="46">
         <v>0</v>
@@ -3074,31 +3103,31 @@
       </c>
       <c r="P30" s="59">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q30" s="59">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R30" s="59">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S30" s="59">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T30" s="59">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U30" s="60">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="V30" s="57">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3349,7 +3378,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D35" s="46">
         <v>0</v>
@@ -3376,31 +3405,31 @@
       </c>
       <c r="P35" s="59">
         <f t="shared" si="5"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="Q35" s="59">
         <f t="shared" si="6"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="R35" s="59">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="S35" s="59">
         <f t="shared" si="1"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="T35" s="59">
         <f t="shared" si="2"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="U35" s="60">
         <f t="shared" si="7"/>
-        <v>1.666666666666667</v>
+        <v>-0.83333333333333326</v>
       </c>
       <c r="V35" s="57">
         <f t="shared" si="8"/>
-        <v>0.33333333333333337</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3533,8 +3562,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="61">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D38" s="46">
         <v>1</v>
@@ -3560,31 +3588,31 @@
       </c>
       <c r="P38" s="59">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" s="59">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R38" s="59">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S38" s="59">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="T38" s="59">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="U38" s="60">
         <f t="shared" si="7"/>
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V38" s="57">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3843,6 +3871,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="61">
+        <f>3/6</f>
         <v>0.5</v>
       </c>
       <c r="D43" s="46">
@@ -4430,7 +4459,8 @@
         <v>55</v>
       </c>
       <c r="C53" s="61">
-        <v>0</v>
+        <f>22/12</f>
+        <v>1.8333333333333333</v>
       </c>
       <c r="D53" s="46">
         <v>0</v>
@@ -4456,31 +4486,31 @@
       </c>
       <c r="P53" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="Q53" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="R53" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="S53" s="59">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T53" s="59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="U53" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="V53" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4721,8 +4751,8 @@
         <v>60</v>
       </c>
       <c r="C58" s="61">
-        <f>14/20</f>
-        <v>0.7</v>
+        <f>489/20</f>
+        <v>24.45</v>
       </c>
       <c r="D58" s="46">
         <v>2</v>
@@ -4749,31 +4779,31 @@
       </c>
       <c r="P58" s="59">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
       <c r="Q58" s="59">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
       <c r="R58" s="59">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
       <c r="S58" s="59">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
       <c r="T58" s="59">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
       <c r="U58" s="60">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>128.75</v>
       </c>
       <c r="V58" s="57">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4784,8 +4814,8 @@
         <v>61</v>
       </c>
       <c r="C59" s="61">
-        <f>7/20</f>
-        <v>0.35</v>
+        <f>9/20</f>
+        <v>0.45</v>
       </c>
       <c r="D59" s="46">
         <v>0</v>
@@ -4811,31 +4841,31 @@
       </c>
       <c r="P59" s="59">
         <f t="shared" si="9"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="Q59" s="59">
         <f t="shared" si="10"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="R59" s="59">
         <f t="shared" si="11"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="S59" s="59">
         <f t="shared" si="12"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="T59" s="59">
         <f t="shared" si="13"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="U59" s="60">
         <f t="shared" si="7"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V59" s="57">
         <f t="shared" si="8"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4846,7 +4876,8 @@
         <v>62</v>
       </c>
       <c r="C60" s="61">
-        <v>5</v>
+        <f>31/5</f>
+        <v>6.2</v>
       </c>
       <c r="D60" s="46">
         <v>0</v>
@@ -4872,31 +4903,31 @@
       </c>
       <c r="P60" s="59">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="Q60" s="59">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="R60" s="59">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="S60" s="59">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="T60" s="59">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="U60" s="60">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V60" s="57">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5276,7 +5307,8 @@
         <v>69</v>
       </c>
       <c r="C67" s="61">
-        <v>0</v>
+        <f>425/20</f>
+        <v>21.25</v>
       </c>
       <c r="D67" s="46">
         <v>1</v>
@@ -5302,31 +5334,31 @@
       </c>
       <c r="P67" s="59">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
       <c r="Q67" s="59">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
       <c r="R67" s="59">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
       <c r="S67" s="59">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
       <c r="T67" s="59">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
       <c r="U67" s="60">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>111.25</v>
       </c>
       <c r="V67" s="57">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5398,7 +5430,7 @@
         <v>71</v>
       </c>
       <c r="C69" s="61">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="D69" s="46">
         <v>1</v>
@@ -5424,31 +5456,31 @@
       </c>
       <c r="P69" s="59">
         <f t="shared" si="9"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q69" s="59">
         <f t="shared" si="10"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R69" s="59">
         <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S69" s="59">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T69" s="59">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U69" s="60">
         <f t="shared" si="7"/>
-        <v>4.9999999999999991</v>
+        <v>5.5</v>
       </c>
       <c r="V69" s="57">
         <f t="shared" si="8"/>
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5459,7 +5491,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="62">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D70" s="46">
         <v>1</v>
@@ -5485,41 +5517,41 @@
       </c>
       <c r="P70" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="Q70" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="R70" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="S70" s="59">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="T70" s="59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="U70" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.74999999999999956</v>
       </c>
       <c r="V70" s="57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
     </row>
     <row r="71" spans="1:22" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="89"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="63">
         <f>SUM(C11:C70)</f>
-        <v>102.43333333333331</v>
+        <v>141.45833333333331</v>
       </c>
       <c r="D71" s="64">
         <f>SUM(D11:D70)</f>
@@ -5571,31 +5603,31 @@
       </c>
       <c r="P71" s="64">
         <f>SUM(P11:P70)</f>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
       <c r="Q71" s="64">
         <f t="shared" ref="Q71:T71" si="16">SUM(Q11:Q70)</f>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
       <c r="R71" s="64">
         <f t="shared" si="16"/>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
       <c r="S71" s="64">
         <f t="shared" si="16"/>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
       <c r="T71" s="64">
         <f t="shared" si="16"/>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
       <c r="U71" s="66">
         <f>SUM(U11:U70)</f>
-        <v>528.1</v>
+        <v>723.22499999999991</v>
       </c>
       <c r="V71" s="63">
         <f>SUM(V11:V70)</f>
-        <v>105.61999999999998</v>
+        <v>144.64499999999998</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5673,51 +5705,51 @@
       <c r="V74" s="6"/>
     </row>
     <row r="75" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="98" t="s">
+      <c r="C75" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="75" t="s">
+      <c r="D75" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="80" t="s">
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="75" t="s">
+      <c r="J75" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="80" t="s">
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="75" t="s">
+      <c r="P75" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="76"/>
-      <c r="S75" s="76"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="81" t="s">
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="80"/>
+      <c r="U75" s="85" t="s">
         <v>8</v>
       </c>
       <c r="V75" s="50"/>
     </row>
     <row r="76" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="79"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="99"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="31" t="s">
         <v>75</v>
       </c>
@@ -5733,7 +5765,7 @@
       <c r="H76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I76" s="72"/>
+      <c r="I76" s="84"/>
       <c r="J76" s="31" t="s">
         <v>11</v>
       </c>
@@ -5749,7 +5781,7 @@
       <c r="N76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O76" s="72"/>
+      <c r="O76" s="84"/>
       <c r="P76" s="31" t="s">
         <v>11</v>
       </c>
@@ -5765,7 +5797,7 @@
       <c r="T76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="U76" s="72"/>
+      <c r="U76" s="84"/>
       <c r="V76" s="45"/>
     </row>
     <row r="77" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6036,10 +6068,10 @@
       <c r="V83" s="51"/>
     </row>
     <row r="84" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="70" t="s">
+      <c r="A84" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="71"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="30"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>

--- a/gongcha T5/Xuất-nhập-tồn-Hà-Nội.xlsx
+++ b/gongcha T5/Xuất-nhập-tồn-Hà-Nội.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\upload\gongcha T5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\gongcha T5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,31 +124,6 @@
           </rPr>
           <t xml:space="preserve">
 HT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ht
-</t>
         </r>
       </text>
     </comment>
@@ -1220,20 +1195,11 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,7 +1216,6 @@
     <xf numFmtId="4" fontId="6" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1288,6 +1253,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,10 +1546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="C69" sqref="C69"/>
+      <selection pane="topRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1591,7 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="97" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="1"/>
@@ -1644,7 +1619,7 @@
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="96">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
@@ -1792,53 +1767,53 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="89" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="89" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="P9" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="94" t="s">
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="86" t="s">
+      <c r="V9" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="92"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="43" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1829,7 @@
       <c r="H10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1870,7 +1845,7 @@
       <c r="N10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="90"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1886,8 +1861,8 @@
       <c r="T10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="95"/>
-      <c r="V10" s="87"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="83"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
@@ -2145,8 +2120,8 @@
         <v>20</v>
       </c>
       <c r="C15" s="61">
-        <f>19/24</f>
-        <v>0.79166666666666663</v>
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D15" s="46">
         <v>0</v>
@@ -2173,31 +2148,31 @@
       </c>
       <c r="P15" s="59">
         <f t="shared" si="5"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="59">
         <f t="shared" si="6"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
       <c r="R15" s="59">
         <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
       <c r="S15" s="59">
         <f t="shared" si="1"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
       <c r="T15" s="59">
         <f t="shared" si="2"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
       <c r="U15" s="60">
         <f t="shared" si="7"/>
-        <v>3.5416666666666661</v>
+        <v>0</v>
       </c>
       <c r="V15" s="57">
         <f t="shared" si="8"/>
-        <v>0.70833333333333326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2332,8 +2307,8 @@
         <v>23</v>
       </c>
       <c r="C18" s="61">
-        <f>8/10</f>
-        <v>0.8</v>
+        <f>2/10</f>
+        <v>0.2</v>
       </c>
       <c r="D18" s="46">
         <v>0</v>
@@ -2359,31 +2334,31 @@
       </c>
       <c r="P18" s="59">
         <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="59">
         <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="R18" s="59">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="S18" s="59">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="T18" s="59">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="7"/>
-        <v>3.0000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V18" s="57">
         <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2394,8 +2369,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="61">
-        <f>488/48</f>
-        <v>10.166666666666666</v>
+        <v>10</v>
       </c>
       <c r="D19" s="46">
         <v>0</v>
@@ -2421,31 +2395,31 @@
       </c>
       <c r="P19" s="59">
         <f t="shared" si="5"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="59">
         <f t="shared" si="6"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
       <c r="R19" s="59">
         <f t="shared" si="0"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
       <c r="S19" s="59">
         <f t="shared" si="1"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
       <c r="T19" s="59">
         <f t="shared" si="2"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
       <c r="U19" s="60">
         <f t="shared" si="7"/>
-        <v>40.833333333333329</v>
+        <v>40</v>
       </c>
       <c r="V19" s="57">
         <f t="shared" si="8"/>
-        <v>8.1666666666666661</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2456,8 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="69">
-        <f>26/80</f>
-        <v>0.32500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="D20" s="46">
         <v>1</v>
@@ -2484,31 +2457,31 @@
       </c>
       <c r="P20" s="59">
         <f t="shared" si="5"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="59">
         <f t="shared" si="6"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="R20" s="59">
         <f t="shared" si="0"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="S20" s="59">
         <f t="shared" si="1"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="T20" s="59">
         <f t="shared" si="2"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="U20" s="60">
         <f t="shared" si="7"/>
-        <v>5.375</v>
+        <v>5</v>
       </c>
       <c r="V20" s="57">
         <f t="shared" si="8"/>
-        <v>1.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2519,8 +2492,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="69">
-        <f>52/80</f>
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="46">
         <v>1</v>
@@ -2546,31 +2518,31 @@
       </c>
       <c r="P21" s="59">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="6"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="R21" s="59">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S21" s="59">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T21" s="59">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U21" s="60">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="V21" s="57">
         <f t="shared" si="8"/>
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2581,8 +2553,8 @@
         <v>27</v>
       </c>
       <c r="C22" s="69">
-        <f>101/80</f>
-        <v>1.2625</v>
+        <f>71/80</f>
+        <v>0.88749999999999996</v>
       </c>
       <c r="D22" s="46">
         <v>0</v>
@@ -2609,31 +2581,31 @@
       </c>
       <c r="P22" s="59">
         <f t="shared" si="5"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="Q22" s="59">
         <f t="shared" si="6"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="R22" s="59">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="59">
         <f t="shared" si="1"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="T22" s="59">
         <f t="shared" si="2"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
       <c r="U22" s="60">
         <f t="shared" si="7"/>
-        <v>5.625</v>
+        <v>3.75</v>
       </c>
       <c r="V22" s="57">
         <f t="shared" si="8"/>
-        <v>1.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2644,8 +2616,8 @@
         <v>28</v>
       </c>
       <c r="C23" s="69">
-        <f>309/80</f>
-        <v>3.8624999999999998</v>
+        <f>209/80</f>
+        <v>2.6124999999999998</v>
       </c>
       <c r="D23" s="46">
         <v>0</v>
@@ -2672,31 +2644,31 @@
       </c>
       <c r="P23" s="59">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q23" s="59">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R23" s="59">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="S23" s="59">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T23" s="59">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23" s="60">
         <f t="shared" si="7"/>
-        <v>17.5</v>
+        <v>11.25</v>
       </c>
       <c r="V23" s="57">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2707,8 +2679,8 @@
         <v>29</v>
       </c>
       <c r="C24" s="69">
-        <f>232/80</f>
-        <v>2.9</v>
+        <f>140/80</f>
+        <v>1.75</v>
       </c>
       <c r="D24" s="46">
         <v>0</v>
@@ -2734,31 +2706,31 @@
       </c>
       <c r="P24" s="59">
         <f t="shared" si="5"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="Q24" s="59">
         <f t="shared" si="6"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="R24" s="59">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="S24" s="59">
         <f t="shared" si="1"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="T24" s="59">
         <f t="shared" si="2"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="U24" s="60">
         <f t="shared" si="7"/>
-        <v>13.25</v>
+        <v>7.5</v>
       </c>
       <c r="V24" s="57">
         <f t="shared" si="8"/>
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2894,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D27" s="46">
         <v>1</v>
@@ -2920,31 +2892,31 @@
       </c>
       <c r="P27" s="59">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="59">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R27" s="59">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S27" s="59">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T27" s="59">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U27" s="60">
         <f t="shared" si="7"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="V27" s="57">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3078,8 +3050,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="61">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="D30" s="46">
         <v>0</v>
@@ -3103,31 +3074,31 @@
       </c>
       <c r="P30" s="59">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="59">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="R30" s="59">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="S30" s="59">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="T30" s="59">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
       <c r="U30" s="60">
         <f t="shared" si="7"/>
-        <v>0.83333333333333326</v>
+        <v>65</v>
       </c>
       <c r="V30" s="57">
         <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3378,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="46">
         <v>0</v>
@@ -3405,31 +3376,31 @@
       </c>
       <c r="P35" s="59">
         <f t="shared" si="5"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q35" s="59">
         <f t="shared" si="6"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R35" s="59">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="S35" s="59">
         <f t="shared" si="1"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="T35" s="59">
         <f t="shared" si="2"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="U35" s="60">
         <f t="shared" si="7"/>
-        <v>-0.83333333333333326</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V35" s="57">
         <f t="shared" si="8"/>
-        <v>-0.16666666666666666</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3562,7 +3533,8 @@
         <v>40</v>
       </c>
       <c r="C38" s="61">
-        <v>0</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="D38" s="46">
         <v>1</v>
@@ -3588,31 +3560,31 @@
       </c>
       <c r="P38" s="59">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q38" s="59">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R38" s="59">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S38" s="59">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T38" s="59">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U38" s="60">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="V38" s="57">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3871,7 +3843,6 @@
         <v>45</v>
       </c>
       <c r="C43" s="61">
-        <f>3/6</f>
         <v>0.5</v>
       </c>
       <c r="D43" s="46">
@@ -4459,8 +4430,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="61">
-        <f>22/12</f>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D53" s="46">
         <v>0</v>
@@ -4486,31 +4456,31 @@
       </c>
       <c r="P53" s="59">
         <f t="shared" si="9"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="59">
         <f t="shared" si="10"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R53" s="59">
         <f t="shared" si="11"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S53" s="59">
         <f t="shared" si="12"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T53" s="59">
         <f t="shared" si="13"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U53" s="60">
         <f t="shared" si="7"/>
-        <v>9.1666666666666661</v>
+        <v>0</v>
       </c>
       <c r="V53" s="57">
         <f t="shared" si="8"/>
-        <v>1.8333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4751,8 +4721,8 @@
         <v>60</v>
       </c>
       <c r="C58" s="61">
-        <f>489/20</f>
-        <v>24.45</v>
+        <f>14/20</f>
+        <v>0.7</v>
       </c>
       <c r="D58" s="46">
         <v>2</v>
@@ -4779,31 +4749,31 @@
       </c>
       <c r="P58" s="59">
         <f t="shared" si="9"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="59">
         <f t="shared" si="10"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
       <c r="R58" s="59">
         <f t="shared" si="11"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
       <c r="S58" s="59">
         <f t="shared" si="12"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
       <c r="T58" s="59">
         <f t="shared" si="13"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
       <c r="U58" s="60">
         <f t="shared" si="7"/>
-        <v>128.75</v>
+        <v>10</v>
       </c>
       <c r="V58" s="57">
         <f t="shared" si="8"/>
-        <v>25.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4814,8 +4784,8 @@
         <v>61</v>
       </c>
       <c r="C59" s="61">
-        <f>9/20</f>
-        <v>0.45</v>
+        <f>7/20</f>
+        <v>0.35</v>
       </c>
       <c r="D59" s="46">
         <v>0</v>
@@ -4841,31 +4811,31 @@
       </c>
       <c r="P59" s="59">
         <f t="shared" si="9"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="Q59" s="59">
         <f t="shared" si="10"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R59" s="59">
         <f t="shared" si="11"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="S59" s="59">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="T59" s="59">
         <f t="shared" si="13"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="U59" s="60">
         <f t="shared" si="7"/>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V59" s="57">
         <f t="shared" si="8"/>
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4876,8 +4846,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="61">
-        <f>31/5</f>
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D60" s="46">
         <v>0</v>
@@ -4903,31 +4872,31 @@
       </c>
       <c r="P60" s="59">
         <f t="shared" si="9"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="59">
         <f t="shared" si="10"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="R60" s="59">
         <f t="shared" si="11"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="S60" s="59">
         <f t="shared" si="12"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="T60" s="59">
         <f t="shared" si="13"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="U60" s="60">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V60" s="57">
         <f t="shared" si="8"/>
-        <v>5.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5307,8 +5276,7 @@
         <v>69</v>
       </c>
       <c r="C67" s="61">
-        <f>425/20</f>
-        <v>21.25</v>
+        <v>0</v>
       </c>
       <c r="D67" s="46">
         <v>1</v>
@@ -5334,31 +5302,31 @@
       </c>
       <c r="P67" s="59">
         <f t="shared" si="9"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="59">
         <f t="shared" si="10"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
       <c r="R67" s="59">
         <f t="shared" si="11"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
       <c r="S67" s="59">
         <f t="shared" si="12"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
       <c r="T67" s="59">
         <f t="shared" si="13"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
       <c r="U67" s="60">
         <f t="shared" si="7"/>
-        <v>111.25</v>
+        <v>5</v>
       </c>
       <c r="V67" s="57">
         <f t="shared" si="8"/>
-        <v>22.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5430,7 +5398,7 @@
         <v>71</v>
       </c>
       <c r="C69" s="61">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="D69" s="46">
         <v>1</v>
@@ -5456,31 +5424,31 @@
       </c>
       <c r="P69" s="59">
         <f t="shared" si="9"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q69" s="59">
         <f t="shared" si="10"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R69" s="59">
         <f t="shared" si="11"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S69" s="59">
         <f t="shared" si="12"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="T69" s="59">
         <f t="shared" si="13"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="U69" s="60">
         <f t="shared" si="7"/>
-        <v>5.5</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="V69" s="57">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5491,7 +5459,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="62">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D70" s="46">
         <v>1</v>
@@ -5517,41 +5485,41 @@
       </c>
       <c r="P70" s="59">
         <f t="shared" si="9"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="59">
         <f t="shared" si="10"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
       <c r="R70" s="59">
         <f t="shared" si="11"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
       <c r="S70" s="59">
         <f t="shared" si="12"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
       <c r="T70" s="59">
         <f t="shared" si="13"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
       <c r="U70" s="60">
         <f t="shared" si="7"/>
-        <v>0.74999999999999956</v>
+        <v>0</v>
       </c>
       <c r="V70" s="57">
         <f t="shared" si="8"/>
-        <v>0.14999999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:22" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="93"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="63">
         <f>SUM(C11:C70)</f>
-        <v>141.45833333333331</v>
+        <v>102.43333333333331</v>
       </c>
       <c r="D71" s="64">
         <f>SUM(D11:D70)</f>
@@ -5603,31 +5571,31 @@
       </c>
       <c r="P71" s="64">
         <f>SUM(P11:P70)</f>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
       <c r="Q71" s="64">
         <f t="shared" ref="Q71:T71" si="16">SUM(Q11:Q70)</f>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
       <c r="R71" s="64">
         <f t="shared" si="16"/>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
       <c r="S71" s="64">
         <f t="shared" si="16"/>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
       <c r="T71" s="64">
         <f t="shared" si="16"/>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
       <c r="U71" s="66">
         <f>SUM(U11:U70)</f>
-        <v>723.22499999999991</v>
+        <v>528.1</v>
       </c>
       <c r="V71" s="63">
         <f>SUM(V11:V70)</f>
-        <v>144.64499999999998</v>
+        <v>105.61999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -5705,51 +5673,51 @@
       <c r="V74" s="6"/>
     </row>
     <row r="75" spans="1:22" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="81" t="s">
+      <c r="A75" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="78" t="s">
+      <c r="D75" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="83" t="s">
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="78" t="s">
+      <c r="J75" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="83" t="s">
+      <c r="K75" s="76"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="78" t="s">
+      <c r="P75" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
-      <c r="S75" s="79"/>
-      <c r="T75" s="80"/>
-      <c r="U75" s="85" t="s">
+      <c r="Q75" s="76"/>
+      <c r="R75" s="76"/>
+      <c r="S75" s="76"/>
+      <c r="T75" s="77"/>
+      <c r="U75" s="81" t="s">
         <v>8</v>
       </c>
       <c r="V75" s="50"/>
     </row>
     <row r="76" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="82"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="75"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="31" t="s">
         <v>75</v>
       </c>
@@ -5765,7 +5733,7 @@
       <c r="H76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I76" s="84"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="31" t="s">
         <v>11</v>
       </c>
@@ -5781,7 +5749,7 @@
       <c r="N76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O76" s="84"/>
+      <c r="O76" s="72"/>
       <c r="P76" s="31" t="s">
         <v>11</v>
       </c>
@@ -5797,7 +5765,7 @@
       <c r="T76" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="U76" s="84"/>
+      <c r="U76" s="72"/>
       <c r="V76" s="45"/>
     </row>
     <row r="77" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6068,10 +6036,10 @@
       <c r="V83" s="51"/>
     </row>
     <row r="84" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="73"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="30"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
